--- a/IUCR Codes.xlsx
+++ b/IUCR Codes.xlsx
@@ -1,63 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hermi\Documents\Chicago Case Study\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E951132-A60E-44A2-B043-833B3F443993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>031A</t>
-  </si>
-  <si>
-    <t>031B</t>
-  </si>
-  <si>
-    <t>033A</t>
-  </si>
-  <si>
-    <t>033B</t>
-  </si>
-  <si>
-    <t>041A</t>
-  </si>
-  <si>
-    <t>041B</t>
-  </si>
-  <si>
-    <t>051A</t>
-  </si>
-  <si>
-    <t>051B</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -85,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -114,44 +86,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -181,12 +153,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -225,631 +197,659 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="str">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="str">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="str">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="str">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="str">
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="str">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="str">
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="str">
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="str">
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="str">
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="str">
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="str">
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="str">
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="str">
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="str">
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="str">
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="str">
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="18">
+      <c r="A18" t="str">
+        <v>031A</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>031B</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="str">
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="str">
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="str">
         <v>331</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="str">
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="str">
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="26">
+      <c r="A26" t="str">
+        <v>033A</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>033B</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
         <v>340</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="29">
+      <c r="A29" t="str">
+        <v>041A</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>041B</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
         <v>420</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" t="str">
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" t="str">
         <v>440</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" t="str">
         <v>450</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" t="str">
         <v>451</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" t="str">
         <v>452</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" t="str">
         <v>453</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" t="str">
         <v>454</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" t="str">
         <v>460</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" t="str">
         <v>461</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" t="str">
         <v>462</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42">
+      <c r="A42" t="str">
         <v>475</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" t="str">
         <v>479</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" t="str">
         <v>480</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45">
+      <c r="A45" t="str">
         <v>481</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46">
+      <c r="A46" t="str">
         <v>482</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47">
+      <c r="A47" t="str">
         <v>483</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48">
+      <c r="A48" t="str">
         <v>484</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49">
+      <c r="A49" t="str">
         <v>485</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50">
+      <c r="A50" t="str">
         <v>486</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" t="str">
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52">
+      <c r="A52" t="str">
         <v>488</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53">
+      <c r="A53" t="str">
         <v>489</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54">
+      <c r="A54" t="str">
         <v>490</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55">
+      <c r="A55" t="str">
         <v>491</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56">
+      <c r="A56" t="str">
         <v>492</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57">
+      <c r="A57" t="str">
         <v>493</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58">
+      <c r="A58" t="str">
         <v>494</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59">
+      <c r="A59" t="str">
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60">
+      <c r="A60" t="str">
         <v>496</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61">
+      <c r="A61" t="str">
         <v>497</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62">
+      <c r="A62" t="str">
         <v>498</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63">
+      <c r="A63" t="str">
         <v>499</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64">
+      <c r="A64" t="str">
         <v>510</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="65">
+      <c r="A65" t="str">
+        <v>051A</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>051B</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
         <v>520</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68">
+      <c r="A68" t="str">
         <v>530</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69">
+      <c r="A69" t="str">
         <v>545</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70">
+      <c r="A70" t="str">
         <v>550</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71">
+      <c r="A71" t="str">
         <v>551</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72">
+      <c r="A72" t="str">
         <v>552</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73">
+      <c r="A73" t="str">
         <v>553</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74">
+      <c r="A74" t="str">
         <v>554</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75">
+      <c r="A75" t="str">
         <v>555</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76">
+      <c r="A76" t="str">
         <v>556</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77">
+      <c r="A77" t="str">
         <v>557</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78">
+      <c r="A78" t="str">
         <v>558</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79">
+      <c r="A79" t="str">
         <v>560</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="80">
+      <c r="A80" t="str">
         <v>1025</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="81">
+      <c r="A81" t="str">
         <v>1544</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="82">
+      <c r="A82" t="str">
         <v>1562</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="83">
+      <c r="A83" t="str">
         <v>1563</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="84">
+      <c r="A84" t="str">
         <v>1565</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="85">
+      <c r="A85" t="str">
         <v>1566</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="86">
+      <c r="A86" t="str">
         <v>1590</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>4210</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="87">
+      <c r="A87" t="str">
         <v>4220</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="88">
+      <c r="A88" t="str">
         <v>5004</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="89">
+      <c r="A89" t="str">
         <v>5005</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:A89"/>
+  </ignoredErrors>
 </worksheet>
 </file>